--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1228,10 +1240,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1275,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1321,28 +1333,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1529,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1622,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1777,10 +1789,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1824,28 +1836,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1870,28 +1882,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2066,10 +2078,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2113,28 +2125,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2159,28 +2171,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2297,10 +2309,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2344,28 +2356,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2390,28 +2402,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2586,10 +2598,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2633,28 +2645,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2679,28 +2691,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2829,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2864,28 +2876,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2922,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3048,10 +3060,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3095,28 +3107,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3141,28 +3153,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3279,10 +3291,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3326,28 +3338,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3372,28 +3384,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3597,10 +3609,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3644,28 +3656,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3690,28 +3702,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3944,10 +3956,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3991,28 +4003,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4037,28 +4049,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4175,10 +4187,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4222,28 +4234,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4268,28 +4280,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4464,10 +4476,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4511,28 +4523,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4557,28 +4569,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4695,10 +4707,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4742,28 +4754,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4788,28 +4800,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4955,10 +4967,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5002,28 +5014,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5048,28 +5060,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5186,10 +5198,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5233,28 +5245,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5279,28 +5291,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5388,10 +5400,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5435,28 +5447,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5481,28 +5493,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5619,10 +5631,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5666,28 +5678,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5712,28 +5724,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5821,10 +5833,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5868,28 +5880,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5914,28 +5926,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6081,10 +6093,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6128,28 +6140,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6174,28 +6186,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6254,10 +6266,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6301,28 +6313,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6347,28 +6359,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6456,10 +6468,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6503,28 +6515,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6549,28 +6561,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6629,10 +6641,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6676,28 +6688,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6722,28 +6734,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6831,10 +6843,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6878,28 +6890,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6924,28 +6936,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7004,10 +7016,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7051,28 +7063,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7097,28 +7109,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7206,10 +7218,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7253,28 +7265,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7299,28 +7311,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7379,10 +7391,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
